--- a/recursos/OBSERVACIONES CONSORCIO 01022023.xlsx
+++ b/recursos/OBSERVACIONES CONSORCIO 01022023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevFiles\xampps\7.0.32\htdocs\consorcio_test\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E868601-C048-463C-83D7-279A7F8C8AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEBF8C-599E-4B13-813C-7FD8D99DF971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Al modificar un cliente (en las opcines de cliente, solicitudes y ordenes de servicio) validar que no tenga emitido un documento por cobrar, si posee un documento emitido no debe permitir cambiar el tipo de documento, número de documento y razón social</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Al agregar una forma de pago en una cobranza de caja se crea el movimiento en las tabla ERP_CajaDiariaDetalle y ERP_VentaFormaPago, el dato consecutivo de la tabla ERP_CajaDiariaDetalle se debe guardar en la tabla ERP_VentaFormaPago (el campo no esxiste en esta tabla hay que crearlo) para poder relacionarlos. Las opciones de cobranza de caja son: + Movimiento de Caja, Pestañas: Solicitudes, Créditos, Documentos Pendientes.</t>
+  </si>
+  <si>
+    <t>preguntar si es credito directo o solo credito, porque en venta solo cambia si es credito directo</t>
   </si>
 </sst>
 </file>
@@ -445,24 +448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="102.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -470,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -478,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -486,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -494,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -502,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -510,31 +514,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -542,28 +549,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
